--- a/data/trans_dic/P15D$consultar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 38,28</t>
+          <t>4,63; 39,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,64</t>
+          <t>0,0; 8,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 22,12</t>
+          <t>3,78; 20,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 24,57</t>
+          <t>5,49; 24,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,85</t>
+          <t>0,0; 37,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 18,98</t>
+          <t>1,94; 18,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 27,11</t>
+          <t>6,21; 26,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 28,94</t>
+          <t>9,6; 29,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 29,88</t>
+          <t>7,3; 31,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,77</t>
+          <t>1,77; 10,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 19,04</t>
+          <t>7,66; 20,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,68; 22,95</t>
+          <t>8,95; 22,22</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 23,55</t>
+          <t>4,3; 22,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 16,21</t>
+          <t>3,61; 17,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 25,03</t>
+          <t>6,78; 25,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 17,98</t>
+          <t>3,4; 18,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 30,12</t>
+          <t>3,64; 33,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 21,2</t>
+          <t>5,5; 21,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 25,93</t>
+          <t>4,54; 26,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 26,68</t>
+          <t>9,9; 25,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 22,02</t>
+          <t>6,26; 21,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 15,23</t>
+          <t>5,45; 14,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 21,16</t>
+          <t>8,05; 21,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 18,57</t>
+          <t>7,87; 19,3</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1005,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 47,02</t>
+          <t>8,67; 47,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 21,36</t>
+          <t>3,4; 20,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,96</t>
+          <t>0,0; 16,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,97</t>
+          <t>0,0; 17,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,46</t>
+          <t>0,0; 21,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,69</t>
+          <t>0,0; 8,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,54; 35,62</t>
+          <t>14,26; 34,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 26,49</t>
+          <t>6,36; 28,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,8</t>
+          <t>2,53; 11,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,8</t>
+          <t>0,0; 9,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,26; 24,21</t>
+          <t>9,71; 24,69</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,65</t>
+          <t>0,0; 18,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 20,37</t>
+          <t>5,19; 19,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 27,41</t>
+          <t>9,21; 28,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 23,15</t>
+          <t>1,61; 23,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 44,72</t>
+          <t>6,61; 44,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 22,34</t>
+          <t>4,98; 21,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 19,28</t>
+          <t>3,27; 20,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 26,94</t>
+          <t>10,78; 27,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 23,94</t>
+          <t>4,45; 22,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 17,36</t>
+          <t>6,84; 18,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 20,93</t>
+          <t>8,43; 21,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 21,12</t>
+          <t>8,05; 20,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 20,82</t>
+          <t>8,3; 20,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,58</t>
+          <t>5,43; 11,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,67</t>
+          <t>8,44; 18,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 14,05</t>
+          <t>5,08; 14,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 21,37</t>
+          <t>6,93; 22,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,51</t>
+          <t>5,48; 12,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,42</t>
+          <t>6,21; 15,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 23,66</t>
+          <t>14,27; 23,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,68</t>
+          <t>9,19; 18,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,2</t>
+          <t>6,28; 11,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 15,22</t>
+          <t>8,54; 15,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,35</t>
+          <t>10,86; 17,44</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, consultar con un profesional sanitario (fuera de un hospital)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5403</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6916</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7646</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6134</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13049</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1055; 9002</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5090</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1574; 8687</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2465; 10949</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5872</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1020; 9729</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3021; 12785</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4150; 12792</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2820; 12017</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1974; 11208</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6915; 18499</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7888; 19585</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6561</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8895</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5979</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8203</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9411</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9128</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14764</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15329</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15390</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1841; 9739</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2853; 13970</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4099; 15427</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2277; 12640</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1097; 10202</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3991; 15686</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2151; 12617</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5666; 14513</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4566; 15667</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8265; 22618</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8686; 23358</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9787; 23987</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5683</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6053</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10356</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6757</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7041</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11573</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2064; 11281</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1954; 11839</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6155</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5186</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5101</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4913</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6290; 15310</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3048; 13424</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2893; 13642</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6235</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7125; 18111</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9562</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10394</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4558</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4741</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8631</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6126</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12338</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6507</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18194</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16520</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16897</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6359</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4574; 17444</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5605; 17240</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>948; 13694</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1565; 10557</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3602; 15641</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2049; 12717</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7441; 19225</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2555; 13017</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10982; 29357</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10409; 26137</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10292; 26351</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16370</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23180</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25475</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17157</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12156</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21840</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19475</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>39751</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28526</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>45020</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>44950</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>56908</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10210; 25289</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15411; 33541</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16848; 36178</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10158; 28360</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6496; 21166</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13931; 32991</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11817; 28885</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30477; 49877</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19934; 40590</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>33805; 61371</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>33298; 59107</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>44914; 72141</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>